--- a/public/template/新学员导入模板.xlsx
+++ b/public/template/新学员导入模板.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="224">
   <si>
     <t>type</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>isLive</t>
   </si>
   <si>
     <t>code</t>
@@ -201,6 +204,9 @@
   </si>
   <si>
     <t>客户来源</t>
+  </si>
+  <si>
+    <t>是否为出镜人专属资源</t>
   </si>
   <si>
     <t>统一社会信用代码</t>
@@ -329,6 +335,9 @@
     <t>小红书-聚光</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>是否</t>
   </si>
   <si>
@@ -351,9 +360,6 @@
   </si>
   <si>
     <t>头条信息流</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>中建事业部</t>
@@ -1922,10 +1928,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1942,16 +1948,17 @@
     <col min="11" max="12" width="30" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="17" max="18" width="24.5" style="6" customWidth="1"/>
-    <col min="19" max="19" width="32.875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="23.625" style="7" customWidth="1"/>
-    <col min="21" max="22" width="19.125" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="23.7" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="18" max="19" width="24.5" style="6" customWidth="1"/>
+    <col min="20" max="20" width="32.875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="23.625" style="7" customWidth="1"/>
+    <col min="22" max="23" width="19.125" customWidth="1"/>
+    <col min="24" max="24" width="14.625" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="29.1" customHeight="1" spans="1:28">
+    <row r="1" s="5" customFormat="1" ht="29.1" customHeight="1" spans="1:29">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2024,61 +2031,64 @@
       <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8"/>
+      <c r="Y1" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:28">
+      <c r="AC1" s="8"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:29">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
       <c r="K2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>27</v>
+      <c r="O2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>30</v>
@@ -2086,145 +2096,154 @@
       <c r="T2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="V2" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="W2" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="33" customHeight="1" spans="1:28">
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="33" customHeight="1" spans="1:29">
       <c r="A3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="U3" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="V3" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
-    </row>
-    <row r="4" ht="27" spans="1:24">
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="4" ht="27" spans="1:25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" s="5">
         <v>15111141111</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" s="5">
         <v>1233456</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="P4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="Q4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="2:24">
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="2:25">
       <c r="B5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2236,12 +2255,13 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="Q5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="2:24">
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="2:25">
       <c r="B6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2253,12 +2273,13 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="Q6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="2:24">
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="2:25">
       <c r="B7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2270,12 +2291,13 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="2:24">
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="2:25">
       <c r="B8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2287,12 +2309,13 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="2:24">
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="2:25">
       <c r="B9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2304,12 +2327,13 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="Q9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="2:24">
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="2:25">
       <c r="B10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2321,12 +2345,13 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="Q10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="2:24">
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="2:25">
       <c r="B11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2338,12 +2363,13 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="Q11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="2:24">
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="2:25">
       <c r="B12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2355,12 +2381,13 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="2:24">
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="2:25">
       <c r="B13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2372,12 +2399,13 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="2:24">
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="2:25">
       <c r="B14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2389,12 +2417,13 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="2:24">
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="2:25">
       <c r="B15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2406,12 +2435,13 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="2:24">
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="2:25">
       <c r="B16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2423,12 +2453,13 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-    </row>
-    <row r="17" spans="2:24">
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="2:25">
       <c r="B17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2440,12 +2471,13 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-    </row>
-    <row r="18" spans="2:24">
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="2:25">
       <c r="B18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2457,12 +2489,13 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-    </row>
-    <row r="19" spans="2:24">
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="2:25">
       <c r="B19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2474,12 +2507,13 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-    </row>
-    <row r="20" spans="2:24">
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="2:25">
       <c r="B20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2491,12 +2525,13 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-    </row>
-    <row r="21" spans="2:24">
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="2:25">
       <c r="B21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2508,12 +2543,13 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="Q21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-    </row>
-    <row r="22" spans="2:24">
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="2:25">
       <c r="B22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2525,12 +2561,13 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="Q22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="2:24">
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="2:25">
       <c r="B23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2542,12 +2579,13 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="Q23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-    </row>
-    <row r="24" spans="2:24">
+      <c r="Y23" s="5"/>
+    </row>
+    <row r="24" spans="2:25">
       <c r="B24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2559,12 +2597,13 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="Q24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-    </row>
-    <row r="25" spans="2:24">
+      <c r="Y24" s="5"/>
+    </row>
+    <row r="25" spans="2:25">
       <c r="B25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2576,12 +2615,13 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-    </row>
-    <row r="26" spans="2:24">
+      <c r="Y25" s="5"/>
+    </row>
+    <row r="26" spans="2:25">
       <c r="B26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2593,12 +2633,13 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="U26" s="5"/>
+      <c r="Q26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-    </row>
-    <row r="27" spans="2:24">
+      <c r="Y26" s="5"/>
+    </row>
+    <row r="27" spans="2:25">
       <c r="B27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2610,12 +2651,13 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="Q27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-    </row>
-    <row r="28" spans="2:24">
+      <c r="Y27" s="5"/>
+    </row>
+    <row r="28" spans="2:25">
       <c r="B28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2627,12 +2669,13 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="U28" s="5"/>
+      <c r="Q28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-    </row>
-    <row r="29" spans="2:24">
+      <c r="Y28" s="5"/>
+    </row>
+    <row r="29" spans="2:25">
       <c r="B29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2644,10 +2687,11 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="Q29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="5"/>
@@ -2775,7 +2819,7 @@
   <mergeCells count="1">
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 D4">
       <formula1>[1]数据有效性1!#REF!</formula1>
     </dataValidation>
@@ -2800,13 +2844,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N1048576">
       <formula1>数据有效性1!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
       <formula1>数据有效性1!$E$2:$E$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W$1:W$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X$1:X$1048576">
       <formula1>"一级,二级,三级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X$1:X$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y$1:Y$1048576">
       <formula1>"电话,微信,QQ,登门拜访"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2833,198 +2881,198 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3070,539 +3118,539 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" t="s">
-        <v>125</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" t="s">
+        <v>156</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S3" t="s">
-        <v>154</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="13:22">
       <c r="M14" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="22:22">
       <c r="V15" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="22:22">
       <c r="V16" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="22:22">
       <c r="V17" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="22:22">
       <c r="V18" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="22:22">
       <c r="V19" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="22:22">
       <c r="V20" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="22:22">
       <c r="V21" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="22:22">
       <c r="V22" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="22:22">
       <c r="V23" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="22:22">
       <c r="V24" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
